--- a/Database.xlsx
+++ b/Database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOMBOM\git\Tricada-Intronik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C555B-C129-4FFE-8E52-2AADFC71DA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689AEEC-4F64-4BB0-84F4-E21D658879DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{31BB73DF-C7BC-42A7-918C-9F92BD8E332C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{31BB73DF-C7BC-42A7-918C-9F92BD8E332C}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -228,18 +228,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>230707111634fcjj1</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>[asd]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Sun Jan 01 07:00:00 ICT 2023</t>
   </si>
   <si>
@@ -249,15 +237,6 @@
     <t>BOOKED</t>
   </si>
   <si>
-    <t>2023-07-07 11:16:34</t>
-  </si>
-  <si>
-    <t>230707112207wgld4</t>
-  </si>
-  <si>
-    <t>2023-07-07 11:22:07</t>
-  </si>
-  <si>
     <t>extrabed</t>
   </si>
   <si>
@@ -282,44 +261,61 @@
     <t>breakfast</t>
   </si>
   <si>
-    <t>230707112654wlqjh</t>
-  </si>
-  <si>
-    <t>[breakfast]</t>
-  </si>
-  <si>
-    <t>2023-07-07 11:26:54</t>
-  </si>
-  <si>
-    <t>2307071127248lc54</t>
-  </si>
-  <si>
-    <t>[breakfast, asd]</t>
-  </si>
-  <si>
-    <t>2023-07-07 11:27:24</t>
-  </si>
-  <si>
-    <t>230707112839yuvf1</t>
-  </si>
-  <si>
-    <t>2023-07-07 11:28:39</t>
-  </si>
-  <si>
-    <t>2307071136251lx1f</t>
-  </si>
-  <si>
     <t>[breakfast, extrabed]</t>
   </si>
   <si>
-    <t>2023-07-07 11:36:25</t>
+    <t>totalprice</t>
+  </si>
+  <si>
+    <t>2307071432397ltnp</t>
+  </si>
+  <si>
+    <t>1500000.0</t>
+  </si>
+  <si>
+    <t>2023-07-07 14:32:39</t>
+  </si>
+  <si>
+    <t>230707143658gv8tk</t>
+  </si>
+  <si>
+    <t>2750000.0</t>
+  </si>
+  <si>
+    <t>2023-07-07 14:36:58</t>
+  </si>
+  <si>
+    <t>230707143822xgv0g</t>
+  </si>
+  <si>
+    <t>5500000.0</t>
+  </si>
+  <si>
+    <t>2023-07-07 14:38:22</t>
+  </si>
+  <si>
+    <t>230707144907h0tr0</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2023-07-07 14:49:07</t>
+  </si>
+  <si>
+    <t>230707145417u8nxb</t>
+  </si>
+  <si>
+    <t>2023-07-07 14:54:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +368,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,19 +686,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" style="1" width="8.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.21875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
-    <col min="9" max="10" style="1" width="8.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="6" width="8.88671875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="8.88671875" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -739,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -808,11 +805,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="3.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="192.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="192.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,17 +990,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEBD41E-B17D-4167-B240-950F643A4DCE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="156.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="9.5546875" collapsed="true"/>
-    <col min="5" max="16384" style="4" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" style="4" collapsed="1"/>
+    <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="156.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>
@@ -1039,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>54</v>
@@ -1053,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>55</v>
@@ -1067,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -1081,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>57</v>
@@ -1095,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
@@ -1109,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>59</v>
@@ -1123,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>60</v>
@@ -1140,21 +1137,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B3A836-FB18-4EDF-B52A-908172E5E69C}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,53 +1177,59 @@
         <v>65</v>
       </c>
       <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1235,30 +1238,33 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1267,30 +1273,33 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>86</v>
       </c>
       <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1299,30 +1308,33 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1331,58 +1343,32 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BOMBOM\git\Tricada-Intronik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689AEEC-4F64-4BB0-84F4-E21D658879DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DBD89-72AD-4EB0-A470-ECB929304673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{31BB73DF-C7BC-42A7-918C-9F92BD8E332C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31BB73DF-C7BC-42A7-918C-9F92BD8E332C}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -75,18 +75,162 @@
     <t>phonenumber</t>
   </si>
   <si>
-    <t>230707073010mxvn3</t>
+    <t>roomtype</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>A single room is designed for one person. It typically has a bed, a dresser, a nightstand, and a desk.</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>A double room is designed for two people. It typically has a queen-sized bed or two double beds. It may also have a dresser, a nightstand, and a desk.</t>
+  </si>
+  <si>
+    <t>twin</t>
+  </si>
+  <si>
+    <t>A twin room is designed for two people. It typically has two twin-sized beds. It may also have a dresser, a nightstand, and a desk.</t>
+  </si>
+  <si>
+    <t>deluxe</t>
+  </si>
+  <si>
+    <t>A deluxe room is a larger and more luxurious version of a standard room. It typically has a king-sized bed, a sofa bed, a dresser, a nightstand, a desk, and a sitting area.</t>
+  </si>
+  <si>
+    <t>suite</t>
+  </si>
+  <si>
+    <t>A suite is a large room that combines a bedroom and a living room. It may also have a kitchenette, a dining area, and a balcony.</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>A family room is designed for families with children. It typically has two bedrooms, a living room, and a kitchenette.</t>
+  </si>
+  <si>
+    <t>accessible</t>
+  </si>
+  <si>
+    <t> An accessible room is designed for guests with disabilities. It typically has features such as wide doorways, accessible bathrooms, and grab bars.</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>Primarily targeted at business travelers, executive rooms offer amenities like a larger work desk, ergonomic chair, and enhanced connectivity options. They may also provide access to executive lounges or dedicated business centers.</t>
+  </si>
+  <si>
+    <t>connecting</t>
+  </si>
+  <si>
+    <t>hese are two or more rooms that connect through a door, allowing guests to move between them without having to exit the room or use a public hallway. They are convenient for families or groups traveling together.</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>Spa rooms are equipped with spa facilities such as hot tubs, whirlpools, or steam showers. These rooms are aimed at guests seeking relaxation and rejuvenation during their stay.</t>
+  </si>
+  <si>
+    <t>penthouse</t>
+  </si>
+  <si>
+    <t>Located on the top floor, penthouse suites offer the utmost luxury and exclusivity. They often feature expansive living areas, private terraces, panoramic views, and personalized services.</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>provide complimentary breakfast to guests, which can range from a simple continental breakfast with pastries, cereals, and fruit to a full buffet or à la carte options.</t>
+  </si>
+  <si>
+    <t>If you're traveling with children or have a large group, you may need an extra bed in your room. </t>
+  </si>
+  <si>
+    <t>A rollaway bed is a smaller bed that can be rolled into a room. This is a good option if you need an extra bed for a child or an adult who doesn't need a full-size bed.</t>
+  </si>
+  <si>
+    <t>If you need to do laundry while you're on vacation. This typically includes washing, drying, and folding your clothes.</t>
+  </si>
+  <si>
+    <t>offer shuttle services or arranged transportation to and from the airport, providing convenience for guests.</t>
+  </si>
+  <si>
+    <t>provide childcare services, including babysitting or kids' clubs, to give parents some time off while ensuring their children are well taken care of.</t>
+  </si>
+  <si>
+    <t>In addition to general concierge services, hotels often offer assistance with ticket bookings, tour arrangements, restaurant reservations, and other activities to enhance guests' experiences.</t>
+  </si>
+  <si>
+    <t>business travelers may offer services like faxing, printing, photocopying, and access to meeting rooms or coworking spaces.</t>
+  </si>
+  <si>
+    <t>numberofnights</t>
+  </si>
+  <si>
+    <t>chekin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>creteddate</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>extrabed</t>
+  </si>
+  <si>
+    <t>rollawaybed</t>
+  </si>
+  <si>
+    <t>laundryservice</t>
+  </si>
+  <si>
+    <t>airporttransfers</t>
+  </si>
+  <si>
+    <t>childcareservices</t>
+  </si>
+  <si>
+    <t>conciergeassistance</t>
+  </si>
+  <si>
+    <t>businessservices</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>totalprice</t>
+  </si>
+  <si>
+    <t>230707151743yfllc</t>
+  </si>
+  <si>
+    <t>rinaldi</t>
+  </si>
+  <si>
+    <t>yari123</t>
   </si>
   <si>
     <t>yari</t>
   </si>
   <si>
-    <t>yari123</t>
-  </si>
-  <si>
-    <t>rinaldi</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -105,217 +249,41 @@
     <t>08123456789</t>
   </si>
   <si>
-    <t>2023-07-07 07:30:10</t>
+    <t>2023-07-07 15:17:43</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>roomtype</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>A single room is designed for one person. It typically has a bed, a dresser, a nightstand, and a desk.</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>A double room is designed for two people. It typically has a queen-sized bed or two double beds. It may also have a dresser, a nightstand, and a desk.</t>
-  </si>
-  <si>
-    <t>twin</t>
-  </si>
-  <si>
-    <t>A twin room is designed for two people. It typically has two twin-sized beds. It may also have a dresser, a nightstand, and a desk.</t>
-  </si>
-  <si>
-    <t>deluxe</t>
-  </si>
-  <si>
-    <t>A deluxe room is a larger and more luxurious version of a standard room. It typically has a king-sized bed, a sofa bed, a dresser, a nightstand, a desk, and a sitting area.</t>
-  </si>
-  <si>
-    <t>suite</t>
-  </si>
-  <si>
-    <t>A suite is a large room that combines a bedroom and a living room. It may also have a kitchenette, a dining area, and a balcony.</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>A family room is designed for families with children. It typically has two bedrooms, a living room, and a kitchenette.</t>
-  </si>
-  <si>
-    <t>accessible</t>
-  </si>
-  <si>
-    <t> An accessible room is designed for guests with disabilities. It typically has features such as wide doorways, accessible bathrooms, and grab bars.</t>
-  </si>
-  <si>
-    <t>executive</t>
-  </si>
-  <si>
-    <t>Primarily targeted at business travelers, executive rooms offer amenities like a larger work desk, ergonomic chair, and enhanced connectivity options. They may also provide access to executive lounges or dedicated business centers.</t>
-  </si>
-  <si>
-    <t>connecting</t>
-  </si>
-  <si>
-    <t>hese are two or more rooms that connect through a door, allowing guests to move between them without having to exit the room or use a public hallway. They are convenient for families or groups traveling together.</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>Spa rooms are equipped with spa facilities such as hot tubs, whirlpools, or steam showers. These rooms are aimed at guests seeking relaxation and rejuvenation during their stay.</t>
-  </si>
-  <si>
-    <t>penthouse</t>
-  </si>
-  <si>
-    <t>Located on the top floor, penthouse suites offer the utmost luxury and exclusivity. They often feature expansive living areas, private terraces, panoramic views, and personalized services.</t>
-  </si>
-  <si>
-    <t>additional</t>
-  </si>
-  <si>
-    <t>provide complimentary breakfast to guests, which can range from a simple continental breakfast with pastries, cereals, and fruit to a full buffet or à la carte options.</t>
-  </si>
-  <si>
-    <t>If you're traveling with children or have a large group, you may need an extra bed in your room. </t>
-  </si>
-  <si>
-    <t>A rollaway bed is a smaller bed that can be rolled into a room. This is a good option if you need an extra bed for a child or an adult who doesn't need a full-size bed.</t>
-  </si>
-  <si>
-    <t>If you need to do laundry while you're on vacation. This typically includes washing, drying, and folding your clothes.</t>
-  </si>
-  <si>
-    <t>offer shuttle services or arranged transportation to and from the airport, providing convenience for guests.</t>
-  </si>
-  <si>
-    <t>provide childcare services, including babysitting or kids' clubs, to give parents some time off while ensuring their children are well taken care of.</t>
-  </si>
-  <si>
-    <t>In addition to general concierge services, hotels often offer assistance with ticket bookings, tour arrangements, restaurant reservations, and other activities to enhance guests' experiences.</t>
-  </si>
-  <si>
-    <t>business travelers may offer services like faxing, printing, photocopying, and access to meeting rooms or coworking spaces.</t>
-  </si>
-  <si>
-    <t>numberofnights</t>
-  </si>
-  <si>
-    <t>chekin</t>
-  </si>
-  <si>
-    <t>checkout</t>
-  </si>
-  <si>
-    <t>creteddate</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Sun Jan 01 07:00:00 ICT 2023</t>
-  </si>
-  <si>
-    <t>Tue Jan 03 00:00:00 ICT 2023</t>
+    <t>230707151749jirbo</t>
+  </si>
+  <si>
+    <t>[breakfast, extrabed]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
   </si>
   <si>
     <t>BOOKED</t>
   </si>
   <si>
-    <t>extrabed</t>
-  </si>
-  <si>
-    <t>rollawaybed</t>
-  </si>
-  <si>
-    <t>laundryservice</t>
-  </si>
-  <si>
-    <t>airporttransfers</t>
-  </si>
-  <si>
-    <t>childcareservices</t>
-  </si>
-  <si>
-    <t>conciergeassistance</t>
-  </si>
-  <si>
-    <t>businessservices</t>
-  </si>
-  <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>[breakfast, extrabed]</t>
-  </si>
-  <si>
-    <t>totalprice</t>
-  </si>
-  <si>
-    <t>2307071432397ltnp</t>
-  </si>
-  <si>
-    <t>1500000.0</t>
-  </si>
-  <si>
-    <t>2023-07-07 14:32:39</t>
-  </si>
-  <si>
-    <t>230707143658gv8tk</t>
-  </si>
-  <si>
-    <t>2750000.0</t>
-  </si>
-  <si>
-    <t>2023-07-07 14:36:58</t>
-  </si>
-  <si>
-    <t>230707143822xgv0g</t>
-  </si>
-  <si>
     <t>5500000.0</t>
   </si>
   <si>
-    <t>2023-07-07 14:38:22</t>
-  </si>
-  <si>
-    <t>230707144907h0tr0</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2023-07-07 14:49:07</t>
-  </si>
-  <si>
-    <t>230707145417u8nxb</t>
-  </si>
-  <si>
-    <t>2023-07-07 14:54:17</t>
+    <t>2023-07-07 15:17:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,7 +336,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,20 +652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CC6D09-416C-4059-B569-DD486BAA26C6}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="8.88671875" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="1" max="6" style="1" width="8.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="10.21875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="9" max="10" style="1" width="8.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -748,45 +715,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -805,11 +772,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="192.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="3.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="192.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.5546875" collapsed="true"/>
+    <col min="5" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -817,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -831,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>500000</v>
@@ -845,10 +812,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>750000</v>
@@ -859,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
         <v>600000</v>
@@ -873,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3">
         <v>1000000</v>
@@ -887,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <v>1500000</v>
@@ -901,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>1500000</v>
@@ -915,10 +882,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3">
         <v>1250000</v>
@@ -929,10 +896,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>2000000</v>
@@ -943,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>3000000</v>
@@ -957,10 +924,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3">
         <v>2000000</v>
@@ -971,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3">
         <v>3000000</v>
@@ -996,11 +963,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4" collapsed="1"/>
-    <col min="2" max="2" width="19" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="156.6640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4" collapsed="1"/>
+    <col min="1" max="1" style="4" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="156.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="9.5546875" collapsed="true"/>
+    <col min="5" max="16384" style="4" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3">
         <v>100000</v>
@@ -1036,10 +1003,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3">
         <v>150000</v>
@@ -1050,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <v>100000</v>
@@ -1064,10 +1031,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3">
         <v>100000</v>
@@ -1078,10 +1045,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3">
         <v>100000</v>
@@ -1092,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3">
         <v>150000</v>
@@ -1106,10 +1073,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>100000</v>
@@ -1120,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3">
         <v>500000</v>
@@ -1137,18 +1104,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B3A836-FB18-4EDF-B52A-908172E5E69C}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1159,28 +1127,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1192,183 +1160,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="7"/>
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
